--- a/biology/Zoologie/Cissia_terrestris/Cissia_terrestris.xlsx
+++ b/biology/Zoologie/Cissia_terrestris/Cissia_terrestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Cissia terrestris est une  espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Cissia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cissia terrestris a été décrit par Edward Arthur Butler en 1867 sous le nom d' Euptychia terrestris[1].
-Noms vernaculaires
-Cissia terrestris se nomme Butler's Ringlet ou Terrestris Satyr en anglais [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cissia terrestris a été décrit par Edward Arthur Butler en 1867 sous le nom d' Euptychia terrestris.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon d'une envergure autour de 34 mm, au dessus beige bordé de trois fines lignes marron parallèles avec aux postérieures un unique gros ocelle doublement pupillé de clair et cerclé de jaune[3].
-Le revers est beige zébré de deux bandes marron avec la même ornementation de fines lignes marron parallèles en bordure, un gros ocelles doublement pupillé et cerclés de jaune vers l'apex des antérieures et, aux ailes postérieures, entre deux gros ocelles doublement pupillés une ligne submarginale de marques argentées.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cissia terrestris se nomme Butler's Ringlet ou Terrestris Satyr en anglais .
 </t>
         </is>
       </c>
@@ -573,13 +590,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il est très commun en Guyane de mars à octobre[4].
-Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon d'une envergure autour de 34 mm, au dessus beige bordé de trois fines lignes marron parallèles avec aux postérieures un unique gros ocelle doublement pupillé de clair et cerclé de jaune.
+Le revers est beige zébré de deux bandes marron avec la même ornementation de fines lignes marron parallèles en bordure, un gros ocelles doublement pupillé et cerclés de jaune vers l'apex des antérieures et, aux ailes postérieures, entre deux gros ocelles doublement pupillés une ligne submarginale de marques argentées.
+</t>
         </is>
       </c>
     </row>
@@ -604,16 +624,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est très commun en Guyane de mars à octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cissia_terrestris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cissia_terrestris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cissia terrestris est présent au Nicaragua, en Bolivie, au Pérou et dans le bassin amazonien dont en Guyane[1].
-Biotope
-Il réside aussi bien dans la forêt tropicale que dans les terres cultivées[2].
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cissia terrestris est présent au Nicaragua, en Bolivie, au Pérou et dans le bassin amazonien dont en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cissia_terrestris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cissia_terrestris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside aussi bien dans la forêt tropicale que dans les terres cultivées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cissia_terrestris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cissia_terrestris</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Cissia terrestris, sur Wikimedia CommonsCissia terrestris, sur Wikispecies
 </t>
